--- a/WorkBot/refactor/data/orders/Hill & Markes/Hill & Markes_Triphammer_2025-08-07.xlsx
+++ b/WorkBot/refactor/data/orders/Hill & Markes/Hill & Markes_Triphammer_2025-08-07.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,303 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P4040XC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bag Sheet Pan Cover 30x43</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SAB12032T300</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cont Salad - 32oz Sabert (Round)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>176.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4541602</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Container - Anchor (16oz)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ANPM424</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Container - Anchor (24oz)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ANPLC4LD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lid Anchor - 24/32oz (Dome)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>113.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ANPLC4F</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lid Anchor - 24/32oz (Flat)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>66.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>133.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SAB52032T300</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lid Salad - 24/32oz Sabert (Round)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>161.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRI80134X60</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Masking Tape</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TS12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 12oz Square</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TS16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 16oz</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TS8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 8oz</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/refactor/data/orders/Hill & Markes/Hill & Markes_Triphammer_2025-08-07.xlsx
+++ b/WorkBot/refactor/data/orders/Hill & Markes/Hill & Markes_Triphammer_2025-08-07.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1015,33 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>764804</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>48 SparClean Dish Manual</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
